--- a/xlsx/美国国家航空航天局_intext.xlsx
+++ b/xlsx/美国国家航空航天局_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="861">
   <si>
     <t>美国国家航空航天局</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国国家航空航天局</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国国家航空航天局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E8%88%AA%E7%A9%BA%E8%AB%AE%E8%A9%A2%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>美國國家航空諮詢委員會</t>
+    <t>美国国家航空谘询委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NACA</t>
@@ -59,55 +59,49 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美國聯邦政府</t>
+    <t>美国联邦政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國政府獨立機構</t>
+    <t>美国政府独立机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E8%88%AA%E7%A9%BA%E6%9A%A8%E5%A4%AA%E7%A9%BA%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>美國國家航空暨太空法案</t>
+    <t>美国国家航空暨太空法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>縮寫</t>
+    <t>缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美国联邦政府</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>太空計劃</t>
+    <t>太空计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>航空科學</t>
+    <t>航空科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>太空科學</t>
+    <t>太空科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -179,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
+    <t>苏联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%80%A0%E5%8D%AB%E6%98%9F</t>
@@ -197,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E6%BD%91%E5%B0%BC%E5%85%8B%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>史潑尼克危機</t>
+    <t>史泼尼克危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A2%E9%99%A9%E8%80%851%E5%8F%B7</t>
@@ -209,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E8%88%AA%E7%A9%BA%E8%AB%AE%E8%A9%A2%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>國家航空諮詢委員會</t>
+    <t>国家航空谘询委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E7%BA%B3%C2%B7%E5%86%AF%C2%B7%E5%B8%83%E5%8A%B3%E6%81%A9</t>
@@ -227,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B5%B7%E8%BB%8D%E7%A0%94%E7%A9%B6%E5%AF%A6%E9%A9%97%E5%AE%A4</t>
   </si>
   <si>
-    <t>美國海軍研究實驗室</t>
+    <t>美国海军研究实验室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%98%9F%E8%AE%A1%E5%88%92</t>
@@ -287,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E7%88%BE%C2%B7%E9%98%BF%E5%A7%86%E6%96%AF%E5%A3%AF</t>
   </si>
   <si>
-    <t>尼爾·阿姆斯壯</t>
+    <t>尼尔·阿姆斯壮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%85%B9%C2%B7%E5%A5%A5%E5%B0%94%E5%BE%B7%E6%9E%97</t>
@@ -365,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%B3%B4%E6%81%A9</t>
   </si>
   <si>
-    <t>奧賴恩</t>
+    <t>奥赖恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E5%A4%A9%E9%A3%9E%E6%9C%BA</t>
@@ -383,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8C%91%E6%88%B0%E8%80%85%E8%99%9F%E5%A4%AA%E7%A9%BA%E6%A2%AD</t>
   </si>
   <si>
-    <t>挑戰者號太空梭</t>
+    <t>挑战者号太空梭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E5%8F%B7%E8%88%AA%E5%A4%A9%E9%A3%9E%E6%9C%BA</t>
@@ -407,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E5%AF%A6%E9%A9%97%E5%AE%A4</t>
   </si>
   <si>
-    <t>太空實驗室</t>
+    <t>太空实验室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%8E%E6%88%B7%E5%BA%A7%E9%A3%9E%E8%88%B9</t>
@@ -431,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%A4%AA%E7%A9%BA%E7%AB%99</t>
   </si>
   <si>
-    <t>國際太空站</t>
+    <t>国际太空站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E5%AE%87%E8%88%AA%E5%B1%80</t>
@@ -443,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%AE%87%E5%AE%99%E8%88%AA%E7%A9%BA%E7%A0%94%E7%A9%B6%E9%96%8B%E7%99%BC%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>日本宇宙航空研究開發機構</t>
+    <t>日本宇宙航空研究开发机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E5%BA%A7%E8%AE%A1%E5%88%92</t>
@@ -467,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E9%A8%8E%E5%85%B5%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>游騎兵計畫</t>
+    <t>游骑兵计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E5%8B%98%E6%B5%8B%E8%BD%A8%E9%81%93%E9%A3%9E%E8%A1%8C%E5%99%A8</t>
@@ -479,25 +473,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E8%BB%8C%E9%81%93%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>月球軌道計畫</t>
+    <t>月球轨道计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AC%E9%87%8F%E5%93%A1%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>測量員計畫</t>
+    <t>测量员计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%90%8A%E9%96%80%E6%B1%80%E8%99%9F</t>
   </si>
   <si>
-    <t>克萊門汀號</t>
+    <t>克莱门汀号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%89%8B10%E8%99%9F</t>
   </si>
   <si>
-    <t>水手10號</t>
+    <t>水手10号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E4%BD%BF%E5%8F%B7</t>
@@ -509,13 +503,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%89%8B2%E8%99%9F</t>
   </si>
   <si>
-    <t>水手2號</t>
+    <t>水手2号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%89%8B5%E8%99%9F</t>
   </si>
   <si>
-    <t>水手5號</t>
+    <t>水手5号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%88%E9%A9%B1%E8%80%85%E9%87%91%E6%98%9F%E8%AE%A1%E5%88%92</t>
@@ -533,31 +527,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%89%8B4%E8%99%9F</t>
   </si>
   <si>
-    <t>水手4號</t>
+    <t>水手4号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%89%8B6%E8%99%9F</t>
   </si>
   <si>
-    <t>水手6號</t>
+    <t>水手6号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%89%8B7%E8%99%9F</t>
   </si>
   <si>
-    <t>水手7號</t>
+    <t>水手7号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%89%8B8%E8%99%9F</t>
   </si>
   <si>
-    <t>水手8號</t>
+    <t>水手8号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%89%8B9%E8%99%9F</t>
   </si>
   <si>
-    <t>水手9號</t>
+    <t>水手9号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%9B%97%E8%AE%A1%E5%88%92</t>
@@ -575,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E6%98%9F%E5%A5%A7%E5%BE%B7%E8%B3%BD%E8%99%9F</t>
   </si>
   <si>
-    <t>火星奧德賽號</t>
+    <t>火星奥德赛号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%A4%E5%87%B0%E5%8F%B7%E7%81%AB%E6%98%9F%E6%8E%A2%E6%B5%8B%E5%99%A8</t>
@@ -593,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E5%A5%87%E8%99%9F</t>
   </si>
   <si>
-    <t>好奇號</t>
+    <t>好奇号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%88%E9%A9%B1%E8%80%8510%E5%8F%B7</t>
@@ -653,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E7%A9%BA1%E8%99%9F</t>
   </si>
   <si>
-    <t>深空1號</t>
+    <t>深空1号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E8%BE%B0%E5%8F%B7</t>
@@ -689,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%A5%E7%8E%8B%E6%98%9F-%E5%8F%A4%E6%9F%8F%E5%B8%B6%E7%89%B9%E5%BF%AB%E8%BB%8A</t>
   </si>
   <si>
-    <t>冥王星-古柏帶特快車</t>
+    <t>冥王星-古柏带特快车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%9C%B0%E5%B9%B3%E7%BA%BF%E5%8F%B7</t>
@@ -701,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E7%A5%9E%E8%99%9F</t>
   </si>
   <si>
-    <t>太陽神號</t>
+    <t>太阳神号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%85%BE%E5%A0%A1%E8%AE%A1%E5%88%92</t>
@@ -731,9 +725,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E7%AB%B6%E8%B3%BD</t>
   </si>
   <si>
-    <t>太空競賽</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E8%88%AA%E5%A4%A9</t>
   </si>
   <si>
@@ -761,7 +752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E5%A4%AA%E7%A9%BA%E7%AB%B6%E8%B3%BD</t>
   </si>
   <si>
-    <t>亞洲太空競賽</t>
+    <t>亚洲太空竞赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E5%A4%A9%E7%BA%AA%E5%BD%95%E5%88%97%E8%A1%A8</t>
@@ -803,7 +794,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E5%AE%99%E8%88%AA%E7%A9%BA%E7%A0%94%E7%A9%B6%E9%96%8B%E7%99%BC%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>宇宙航空研究開發機構</t>
+    <t>宇宙航空研究开发机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E8%81%94%E9%82%A6%E8%88%AA%E5%A4%A9%E5%B1%80</t>
@@ -887,7 +878,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4%E5%AD%B8</t>
   </si>
   <si>
-    <t>考古學</t>
+    <t>考古学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%AB%E6%98%9F%E5%BD%B1%E5%83%8F</t>
@@ -977,7 +968,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E5%A4%A9%E6%B0%A3</t>
   </si>
   <si>
-    <t>太空天氣</t>
+    <t>太空天气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%BD%E4%BA%BA%E8%88%AA%E5%A4%A9</t>
@@ -1043,7 +1034,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E8%88%AA%E8%A1%8C%E5%B0%8D%E4%BA%BA%E9%AB%94%E7%9A%84%E5%BD%B1%E9%9F%BF</t>
   </si>
   <si>
-    <t>太空航行對人體的影響</t>
+    <t>太空航行对人体的影响</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Space_adaptation_syndrome</t>
@@ -1085,31 +1076,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E8%88%9F%E9%A3%9B%E8%88%B9</t>
   </si>
   <si>
-    <t>神舟飛船</t>
+    <t>神舟飞船</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%AA%E7%A9%BA%E7%AB%99</t>
   </si>
   <si>
-    <t>中國太空站</t>
+    <t>中国太空站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>東方計劃</t>
+    <t>东方计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%AE%E7%82%AE%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>禮炮計劃</t>
+    <t>礼炮计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%8D%87%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>上升計劃</t>
+    <t>上升计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E7%9B%9F%E8%AE%A1%E5%88%92</t>
@@ -1133,13 +1124,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E6%A2%AD%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>太空梭計劃</t>
+    <t>太空梭计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BF%E6%A2%AD%E6%A9%9F-%E5%92%8C%E5%B9%B3%E8%99%9F%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>穿梭機-和平號計劃</t>
+    <t>穿梭机-和平号计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%B9%B3%E5%8F%B7%E7%A9%BA%E9%97%B4%E7%AB%99</t>
@@ -1175,13 +1166,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E9%A3%9B%E6%A9%9F</t>
   </si>
   <si>
-    <t>太空飛機</t>
+    <t>太空飞机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%99%A8%E4%BA%BA%E5%A4%AA%E7%A9%BA%E8%88%B9</t>
   </si>
   <si>
-    <t>機器人太空船</t>
+    <t>机器人太空船</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E9%97%B4%E6%8E%A2%E6%B5%8B%E5%99%A8</t>
@@ -1199,7 +1190,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A2%E6%B8%AC%E8%BB%8A</t>
   </si>
   <si>
-    <t>探測車</t>
+    <t>探测车</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Self-replicating_spacecraft</t>
@@ -1283,13 +1274,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A8%99</t>
   </si>
   <si>
-    <t>目標</t>
+    <t>目标</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%BB%8C%E9%81%93%E5%A4%AA%E7%A9%BA%E9%A3%9B%E8%A1%8C</t>
   </si>
   <si>
-    <t>亞軌道太空飛行</t>
+    <t>亚轨道太空飞行</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Orbital_spaceflight</t>
@@ -1313,13 +1304,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%98%9F%E9%9A%9B%E8%88%AA%E8%A1%8C</t>
   </si>
   <si>
-    <t>行星際航行</t>
+    <t>行星际航行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%86%E6%98%9F%E9%9A%9B%E6%97%85%E8%A1%8C</t>
   </si>
   <si>
-    <t>恆星際旅行</t>
+    <t>恒星际旅行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E7%B3%BB%E9%99%85%E6%97%85%E8%A1%8C</t>
@@ -1355,7 +1346,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E8%88%AA%E7%A9%BA%E5%AE%87%E5%AE%99%E7%A0%94%E7%A9%B6%E9%99%A2</t>
   </si>
   <si>
-    <t>韓國航空宇宙研究院</t>
+    <t>韩国航空宇宙研究院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E8%88%AA%E5%A4%A9%E5%B1%80</t>
@@ -1367,7 +1358,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%88%AA%E5%A4%A9%E7%A7%91%E6%8A%80%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>中國航天科技集團</t>
+    <t>中国航天科技集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E8%88%AA%E5%A4%A9%E7%A7%91%E5%B7%A5%E9%9B%86%E5%9B%A2</t>
@@ -1379,19 +1370,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%BC%89%E4%BA%BA%E8%88%AA%E5%A4%A9%E5%B7%A5%E7%A8%8B%E8%BE%A6%E5%85%AC%E5%AE%A4</t>
   </si>
   <si>
-    <t>中國載人航天工程辦公室</t>
+    <t>中国载人航天工程办公室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%A4%AA%E7%A9%BA%E4%B8%AD%E5%BF%83_(%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B)</t>
   </si>
   <si>
-    <t>國家太空中心 (中華民國)</t>
+    <t>国家太空中心 (中华民国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E5%9C%8B%E5%AE%B6%E5%AE%87%E5%AE%99%E9%96%8B%E7%99%BC%E5%B1%80</t>
   </si>
   <si>
-    <t>朝鮮國家宇宙開發局</t>
+    <t>朝鲜国家宇宙开发局</t>
   </si>
   <si>
     <t>https://id.wikipedia.org/wiki/Lembaga_Penerbangan_dan_Antariksa_Nasional</t>
@@ -1415,19 +1406,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%A4%AA%E7%A9%BA%E7%A0%94%E7%A9%B6%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>法國國家太空研究中心</t>
+    <t>法国国家太空研究中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E8%88%AA%E7%A9%BA%E5%A4%AA%E7%A9%BA%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>德國航空太空中心</t>
+    <t>德国航空太空中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E5%A4%AA%E7%A9%BA%E7%B8%BD%E7%BD%B2</t>
   </si>
   <si>
-    <t>義大利太空總署</t>
+    <t>义大利太空总署</t>
   </si>
   <si>
     <t>https://sv.wikipedia.org/wiki/Rymdstyrelsen</t>
@@ -1439,7 +1430,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E8%88%AA%E5%A4%AA</t>
   </si>
   <si>
-    <t>俄羅斯航太</t>
+    <t>俄罗斯航太</t>
   </si>
   <si>
     <t>https://uk.wikipedia.org/wiki/%D0%94%D0%B5%D1%80%D0%B6%D0%B0%D0%B2%D0%BD%D0%B5_%D0%BA%D0%BE%D1%81%D0%BC%D1%96%D1%87%D0%BD%D0%B5_%D0%B0%D0%B3%D0%B5%D0%BD%D1%82%D1%81%D1%82%D0%B2%D0%BE_%D0%A3%D0%BA%D1%80%D0%B0%D1%97%D0%BD%D0%B8</t>
@@ -1481,7 +1472,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%A4%AA%E7%A9%BA%E7%A0%94%E7%A9%B6%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>印度太空研究組織</t>
+    <t>印度太空研究组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%9D%B0%E6%96%AF%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -1499,7 +1490,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E5%A4%A9%E5%99%A8%E8%A3%9D%E9%85%8D%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>航天器裝配大樓</t>
+    <t>航天器装配大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%B0%BC%E8%BF%AA%E8%88%AA%E5%A4%A9%E4%B8%AD%E5%BF%8339%E5%8F%B7%E5%8F%91%E5%B0%84%E5%A4%8D%E5%90%88%E4%BD%93</t>
@@ -1517,13 +1508,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%89%8B%E8%99%9F%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>水手號計劃</t>
+    <t>水手号计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%88%E9%8B%92%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>先鋒計劃</t>
+    <t>先锋计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%9B%97%E5%8F%B7</t>
@@ -1541,13 +1532,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E6%98%9F%E5%81%B5%E5%AF%9F%E5%85%B5%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>火星偵察兵計劃</t>
+    <t>火星侦察兵计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%87%E6%81%86%E6%98%9F%E5%85%B1%E5%AD%98</t>
   </si>
   <si>
-    <t>與恆星共存</t>
+    <t>与恒星共存</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%9E%8B%E8%BD%A8%E9%81%93%E5%A4%A9%E6%96%87%E5%8F%B0%E8%AE%A1%E5%88%92</t>
@@ -1559,19 +1550,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E6%B5%B7%E5%AE%B6%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>航海家計畫</t>
+    <t>航海家计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E7%8F%BE%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>發現計劃</t>
+    <t>发现计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%96%86%E7%95%8C%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>新疆界計畫</t>
+    <t>新疆界计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E6%98%9F%E6%8E%A2%E6%B5%8B%E6%BC%AB%E6%B8%B8%E8%80%85</t>
@@ -1583,21 +1574,18 @@
     <t>https://zh.wikipedia.org/wiki/X-15%E8%A9%A6%E9%A9%97%E6%A9%9F</t>
   </si>
   <si>
-    <t>X-15試驗機</t>
+    <t>X-15试验机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A1%E8%BB%8C%E9%81%93%E5%A4%AA%E7%A9%BA%E9%A3%9B%E8%A1%8C</t>
   </si>
   <si>
-    <t>次軌道太空飛行</t>
+    <t>次轨道太空飞行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94</t>
   </si>
   <si>
-    <t>苏联</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E6%A2%AD%EF%BC%8D%E5%92%8C%E5%B9%B3%E5%8F%B7%E8%AE%A1%E5%88%92</t>
   </si>
   <si>
@@ -1613,7 +1601,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E5%AE%99%E8%83%8C%E6%99%AF%E6%8E%A2%E6%B8%AC%E8%80%85</t>
   </si>
   <si>
-    <t>宇宙背景探測者</t>
+    <t>宇宙背景探测者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%98%9F-%E5%AE%87%E5%AE%99%E7%A5%9E6%E5%8F%B7</t>
@@ -1625,7 +1613,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%93%B2%E5%80%AB%E8%99%9F%E9%87%91%E6%98%9F%E6%8E%A2%E6%B8%AC%E5%99%A8</t>
   </si>
   <si>
-    <t>麥哲倫號金星探測器</t>
+    <t>麦哲伦号金星探测器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%BD%E5%88%A9%E7%95%A5%E5%8F%B7%E6%8E%A2%E6%B5%8B%E5%99%A8</t>
@@ -1643,7 +1631,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%8A%9B%E5%9B%9E%E6%BA%AF%E5%8F%8A%E5%85%A7%E9%83%A8%E7%B5%90%E6%A7%8B%E5%AF%A6%E9%A9%97%E5%AE%A4</t>
   </si>
   <si>
-    <t>重力回溯及內部結構實驗室</t>
+    <t>重力回溯及内部结构实验室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%B0%94%E9%87%91%E6%A3%AE%E5%BE%AE%E6%B3%A2%E5%90%84%E5%90%91%E5%BC%82%E6%80%A7%E6%8E%A2%E6%B5%8B%E5%99%A8</t>
@@ -1655,7 +1643,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E5%A4%A7%E6%B0%A3%E8%88%87%E7%B2%89%E5%A1%B5%E7%92%B0%E5%A2%83%E6%8E%A2%E6%B8%AC%E5%99%A8</t>
   </si>
   <si>
-    <t>月球大氣與粉塵環境探測器</t>
+    <t>月球大气与粉尘环境探测器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E6%98%9F%E4%BE%A6%E5%AF%9F%E8%BD%A8%E9%81%93%E5%99%A8</t>
@@ -1667,19 +1655,19 @@
     <t>https://zh.wikipedia.org/wiki/2001%E7%81%AB%E6%98%9F%E5%A5%A7%E5%BE%B7%E8%B3%BD%E8%99%9F</t>
   </si>
   <si>
-    <t>2001火星奧德賽號</t>
+    <t>2001火星奥德赛号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%99%E5%85%89%E8%99%9F</t>
   </si>
   <si>
-    <t>曙光號</t>
+    <t>曙光号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%8D%9C%E5%8B%92%E5%A4%AA%E7%A9%BA%E6%9C%9B%E9%81%A0%E9%8F%A1</t>
   </si>
   <si>
-    <t>克卜勒太空望遠鏡</t>
+    <t>克卜勒太空望远镜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%8B%83%E7%A9%BA%E9%97%B4%E6%9C%9B%E8%BF%9C%E9%95%9C</t>
@@ -1691,7 +1679,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%8C%B9%E5%93%B2%E5%A4%AA%E7%A9%BA%E6%9C%9B%E9%81%A0%E9%8F%A1</t>
   </si>
   <si>
-    <t>史匹哲太空望遠鏡</t>
+    <t>史匹哲太空望远镜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E9%A9%AC%E7%AC%AC%E9%AB%98%E8%83%BD%E5%A4%AA%E9%98%B3%E5%85%89%E8%B0%B1%E6%88%90%E5%83%8F%E6%8E%A2%E6%B5%8B%E5%99%A8</t>
@@ -1721,13 +1709,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E8%89%BE%E5%80%AB%E6%8E%A2%E6%B8%AC%E5%99%A8</t>
   </si>
   <si>
-    <t>范艾倫探測器</t>
+    <t>范艾伦探测器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E5%8B%95%E5%8A%9B%E5%AD%B8%E5%A4%A9%E6%96%87%E5%8F%B0</t>
   </si>
   <si>
-    <t>太陽動力學天文台</t>
+    <t>太阳动力学天文台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E5%85%89%E8%B0%B1%E6%9C%9B%E8%BF%9C%E9%95%9C%E9%98%B5%E5%88%97</t>
@@ -1739,13 +1727,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E6%B5%B7%E5%AE%B61%E8%99%9F</t>
   </si>
   <si>
-    <t>航海家1號</t>
+    <t>航海家1号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%9F%9F%E7%B4%85%E5%A4%96%E7%B7%9A%E5%B7%A1%E5%A4%A9%E6%8E%A2%E6%B8%AC%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>廣域紅外線巡天探測衛星</t>
+    <t>广域红外线巡天探测卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MAVEN</t>
@@ -1763,7 +1751,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9E%E5%AF%9F%E8%99%9F</t>
   </si>
   <si>
-    <t>洞察號</t>
+    <t>洞察号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/OSIRIS-REx</t>
@@ -1775,7 +1763,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E6%98%9F2020%E6%8E%A2%E6%B8%AC%E8%BB%8A%E4%BB%BB%E5%8B%99</t>
   </si>
   <si>
-    <t>火星2020探測車任務</t>
+    <t>火星2020探测车任务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E7%A9%BA%E7%BD%91%E7%BB%9C</t>
@@ -1853,15 +1841,9 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E8%88%AA%E5%A4%A9%E7%A7%91%E6%8A%80%E9%9B%86%E5%9B%A2</t>
   </si>
   <si>
-    <t>中国航天科技集团</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%9B%BD%E8%88%AA%E7%A9%BA%E5%AE%87%E5%AE%99%E7%A0%94%E7%A9%B6%E9%99%A2</t>
   </si>
   <si>
-    <t>韩国航空宇宙研究院</t>
-  </si>
-  <si>
     <t>https://ko.wikipedia.org/wiki/%ED%95%9C%EA%B5%AD%EA%B3%BC%ED%95%99%EA%B8%B0%EC%88%A0%EC%9B%90_%EC%9D%B8%EA%B3%B5%EC%9C%84%EC%84%B1%EC%97%B0%EA%B5%AC%EC%84%BC%ED%84%B0</t>
   </si>
   <si>
@@ -1877,13 +1859,13 @@
     <t>https://ja.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E5%AE%87%E5%AE%99%E6%8A%80%E8%A1%93%E7%A0%94%E7%A9%B6%E6%89%80</t>
   </si>
   <si>
-    <t>ja-航空宇宙技術研究所</t>
+    <t>ja-航空宇宙技术研究所</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E5%AE%87%E5%AE%99%E9%96%8B%E7%99%BA%E4%BA%8B%E6%A5%AD%E5%9B%A3</t>
   </si>
   <si>
-    <t>ja-宇宙開発事業団</t>
+    <t>ja-宇宙开発事业団</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E6%8A%A5%E9%80%9A%E4%BF%A1%E7%A0%94%E7%A9%B6%E6%9C%BA%E6%9E%84</t>
@@ -1895,7 +1877,7 @@
     <t>https://ja.wikipedia.org/wiki/%E5%AE%87%E5%AE%99%E3%82%B7%E3%82%B9%E3%83%86%E3%83%A0%E9%96%8B%E7%99%BA%E5%88%A9%E7%94%A8%E6%8E%A8%E9%80%B2%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>ja-宇宙システム開発利用推進機構</t>
+    <t>ja-宇宙システム开発利用推进机构</t>
   </si>
   <si>
     <t>https://th.wikipedia.org/wiki/%E0%B8%AA%E0%B8%B3%E0%B8%99%E0%B8%B1%E0%B8%81%E0%B8%87%E0%B8%B2%E0%B8%99%E0%B8%9E%E0%B8%B1%E0%B8%92%E0%B8%99%E0%B8%B2%E0%B9%80%E0%B8%97%E0%B8%84%E0%B9%82%E0%B8%99%E0%B9%82%E0%B8%A5%E0%B8%A2%E0%B8%B5%E0%B8%AD%E0%B8%A7%E0%B8%81%E0%B8%B2%E0%B8%A8%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%A0%E0%B8%B9%E0%B8%A1%E0%B8%B4%E0%B8%AA%E0%B8%B2%E0%B8%A3%E0%B8%AA%E0%B8%99%E0%B9%80%E0%B8%97%E0%B8%A8_(%E0%B8%AD%E0%B8%87%E0%B8%84%E0%B9%8C%E0%B8%81%E0%B8%B2%E0%B8%A3%E0%B8%A1%E0%B8%AB%E0%B8%B2%E0%B8%8A%E0%B8%99)</t>
@@ -1979,7 +1961,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>英聯邦</t>
+    <t>英联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E7%A7%91%E5%AD%A6%E4%B8%8E%E5%B7%A5%E4%B8%9A%E7%A0%94%E7%A9%B6%E7%BB%84%E7%BB%87</t>
@@ -1997,7 +1979,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F%E8%A1%9B%E6%98%9F%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>歐盟衛星中心</t>
+    <t>欧盟卫星中心</t>
   </si>
   <si>
     <t>https://fr.wikipedia.org/wiki/Swiss_Space_Office</t>
@@ -2171,7 +2153,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BC%AF%E5%A4%AA%E7%A9%BA%E6%9C%9B%E9%81%A0%E9%8F%A1</t>
   </si>
   <si>
-    <t>哈伯太空望遠鏡</t>
+    <t>哈伯太空望远镜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%91%BC%E9%B2%81%E5%8D%AB%E6%98%9F</t>
@@ -2201,13 +2183,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%88%E9%A9%85%E8%80%85%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>先驅者計劃</t>
+    <t>先驱者计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%98%E5%BE%8A%E8%80%85%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>徘徊者計畫</t>
+    <t>徘徊者计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E6%98%9F%E6%8E%A2%E8%B7%AF%E8%80%85</t>
@@ -2219,19 +2201,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E6%98%9F%E8%A7%80%E5%AF%9F%E8%80%85</t>
   </si>
   <si>
-    <t>火星觀察者</t>
+    <t>火星观察者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E6%98%9F%E5%85%A8%E7%90%83%E6%8E%A2%E5%8B%98%E8%80%85%E8%99%9F</t>
   </si>
   <si>
-    <t>火星全球探勘者號</t>
+    <t>火星全球探勘者号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E5%90%88-%E8%88%92%E6%A2%85%E5%85%8B%E8%99%9F</t>
   </si>
   <si>
-    <t>會合-舒梅克號</t>
+    <t>会合-舒梅克号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E5%B0%98%E5%8F%B7</t>
@@ -2249,13 +2231,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%93%8E%E5%A4%A9%E7%A5%9E%E4%BA%94%E8%99%9F%E9%81%8B%E8%BC%89%E7%81%AB%E7%AE%AD</t>
   </si>
   <si>
-    <t>擎天神五號運載火箭</t>
+    <t>擎天神五号运载火箭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%A7%92%E6%B4%B2%E7%B3%BB%E5%88%97%E9%81%8B%E8%BC%89%E7%81%AB%E7%AE%AD</t>
   </si>
   <si>
-    <t>三角洲系列運載火箭</t>
+    <t>三角洲系列运载火箭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B0%94%E5%A1%94-2%E8%BF%90%E8%BD%BD%E7%81%AB%E7%AE%AD</t>
@@ -2267,55 +2249,55 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%A7%92%E6%B4%B2%E5%9B%9B%E8%99%9F%E9%81%8B%E8%BC%89%E7%81%AB%E7%AE%AD</t>
   </si>
   <si>
-    <t>三角洲四號運載火箭</t>
+    <t>三角洲四号运载火箭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%89%9B%E6%80%AA%E9%81%8B%E8%BC%89%E7%81%AB%E7%AE%AD</t>
   </si>
   <si>
-    <t>人牛怪運載火箭</t>
+    <t>人牛怪运载火箭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%A5%9E%E7%81%AB%E7%AE%AD%E7%B3%BB%E5%88%97%E9%81%8B%E8%BC%89%E7%81%AB%E7%AE%AD</t>
   </si>
   <si>
-    <t>戰神火箭系列運載火箭</t>
+    <t>战神火箭系列运载火箭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%93%8E%E5%A4%A9%E7%A5%9E%E4%B8%80%E8%99%9F%E9%81%8B%E8%BC%89%E7%81%AB%E7%AE%AD</t>
   </si>
   <si>
-    <t>擎天神一號運載火箭</t>
+    <t>擎天神一号运载火箭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%93%8E%E5%A4%A9%E7%A5%9E%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>擎天神飛彈</t>
+    <t>擎天神飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%93%8E%E5%A4%A9%E7%A5%9E%E4%B8%89%E8%99%9F%E9%81%8B%E8%BC%89%E7%81%AB%E7%AE%AD</t>
   </si>
   <si>
-    <t>擎天神三號運載火箭</t>
+    <t>擎天神三号运载火箭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E5%A8%9C%E7%B3%BB%E5%88%97%E9%81%8B%E8%BC%89%E7%81%AB%E7%AE%AD</t>
   </si>
   <si>
-    <t>雅典娜系列運載火箭</t>
+    <t>雅典娜系列运载火箭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%A7%92%E6%B4%B2%E4%B8%89%E8%99%9F%E9%81%8B%E8%BC%89%E7%81%AB%E7%AE%AD</t>
   </si>
   <si>
-    <t>三角洲三號運載火箭</t>
+    <t>三角洲三号运载火箭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E8%AB%BE%E4%B8%80%E8%99%9F%E9%81%8B%E8%BC%89%E7%81%AB%E7%AE%AD</t>
   </si>
   <si>
-    <t>朱諾一號運載火箭</t>
+    <t>朱诺一号运载火箭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E6%98%9F1%E5%8F%B7%E8%BF%90%E8%BD%BD%E7%81%AB%E7%AE%AD</t>
@@ -2327,19 +2309,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E6%98%9F1B%E8%99%9F%E9%81%8B%E8%BC%89%E7%81%AB%E7%AE%AD</t>
   </si>
   <si>
-    <t>土星1B號運載火箭</t>
+    <t>土星1B号运载火箭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9D%A6%E7%B3%BB%E5%88%97%E9%81%8B%E8%BC%89%E7%81%AB%E7%AE%AD</t>
   </si>
   <si>
-    <t>泰坦系列運載火箭</t>
+    <t>泰坦系列运载火箭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9D%A63B%E5%9E%8B%E9%81%8B%E8%BC%89%E7%81%AB%E7%AE%AD</t>
   </si>
   <si>
-    <t>泰坦3B型運載火箭</t>
+    <t>泰坦3B型运载火箭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E9%80%8A%E8%88%AA%E5%A4%A9%E4%B8%AD%E5%BF%83</t>
@@ -2351,7 +2333,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E7%99%BB%E5%A0%A1%E7%A9%BA%E8%BB%8D%E5%9F%BA%E5%9C%B0</t>
   </si>
   <si>
-    <t>范登堡空軍基地</t>
+    <t>范登堡空军基地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B</t>
@@ -2399,7 +2381,7 @@
     <t>https://zh.wikipedia.org/wiki/X-20%E8%A9%A6%E9%A9%97%E6%A9%9F</t>
   </si>
   <si>
-    <t>X-20試驗機</t>
+    <t>X-20试验机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Science_policy_of_the_United_States</t>
@@ -2447,7 +2429,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%A8%99%E6%BA%96%E6%8A%80%E8%A1%93%E7%A0%94%E7%A9%B6%E6%89%80</t>
   </si>
   <si>
-    <t>國家標準技術研究所</t>
+    <t>国家标准技术研究所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E6%B5%B7%E6%B4%8B%E5%92%8C%E5%A4%A7%E6%B0%94%E7%AE%A1%E7%90%86%E5%B1%80</t>
@@ -2459,7 +2441,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E9%AB%98%E7%AD%89%E7%A0%94%E7%A9%B6%E8%A8%88%E5%8A%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>國防高等研究計劃署</t>
+    <t>国防高等研究计划署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B%E7%A0%94%E7%A9%B6%E5%AE%9E%E9%AA%8C%E5%AE%A4</t>
@@ -2471,13 +2453,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%95%99%E8%82%B2%E9%83%A8</t>
   </si>
   <si>
-    <t>美國教育部</t>
+    <t>美国教育部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%83%BD%E6%BA%90%E9%83%A8</t>
   </si>
   <si>
-    <t>美國能源部</t>
+    <t>美国能源部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%83%BD%E6%BA%90%E9%83%A8%E5%9B%BD%E5%AE%B6%E5%AE%9E%E9%AA%8C%E5%AE%A4</t>
@@ -2495,7 +2477,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E8%A1%9B%E7%94%9F%E7%A0%94%E7%A9%B6%E9%99%A2_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>國立衛生研究院 (美國)</t>
+    <t>国立卫生研究院 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A3%9F%E5%93%81%E8%8D%AF%E5%93%81%E7%9B%91%E7%9D%A3%E7%AE%A1%E7%90%86%E5%B1%80</t>
@@ -2507,7 +2489,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%9C%9F%E5%AE%89%E5%85%A8%E9%83%A8</t>
   </si>
   <si>
-    <t>美國國土安全部</t>
+    <t>美国国土安全部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%94%BF%E9%83%A8</t>
@@ -2519,13 +2501,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E8%B3%AA%E8%AA%BF%E6%9F%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>美國地質調查局</t>
+    <t>美国地质调查局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%8B%E8%BC%B8%E9%83%A8</t>
   </si>
   <si>
-    <t>美國運輸部</t>
+    <t>美国运输部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%88%AA%E7%A9%BA%E7%AE%A1%E7%90%86%E5%B1%80</t>
@@ -2537,7 +2519,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%80%80%E4%BC%8D%E8%BB%8D%E4%BA%BA%E4%BA%8B%E5%8B%99%E9%83%A8</t>
   </si>
   <si>
-    <t>美國退伍軍人事務部</t>
+    <t>美国退伍军人事务部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AD%A6%E9%99%A2</t>
@@ -2549,7 +2531,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2567,7 +2549,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2585,7 +2567,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2603,7 +2585,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -3276,7 +3258,7 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
         <v>44</v>
@@ -3302,10 +3284,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G12" t="n">
         <v>3</v>
@@ -3360,10 +3342,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G14" t="n">
         <v>3</v>
@@ -3389,10 +3371,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -3418,10 +3400,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -3447,10 +3429,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -3476,10 +3458,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -3505,10 +3487,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -3534,10 +3516,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -3563,10 +3545,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G21" t="n">
         <v>28</v>
@@ -3592,10 +3574,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -3621,10 +3603,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G23" t="n">
         <v>24</v>
@@ -3650,10 +3632,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -3679,10 +3661,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -3708,10 +3690,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -3737,10 +3719,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G27" t="n">
         <v>5</v>
@@ -3766,10 +3748,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G28" t="n">
         <v>3</v>
@@ -3795,10 +3777,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -3824,10 +3806,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -3853,10 +3835,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -3882,10 +3864,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G32" t="n">
         <v>3</v>
@@ -3911,10 +3893,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -3940,10 +3922,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G34" t="n">
         <v>4</v>
@@ -3969,10 +3951,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -3998,10 +3980,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -4027,10 +4009,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -4056,10 +4038,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G38" t="n">
         <v>5</v>
@@ -4085,10 +4067,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -4114,10 +4096,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G40" t="n">
         <v>12</v>
@@ -4143,10 +4125,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G41" t="n">
         <v>19</v>
@@ -4172,10 +4154,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G42" t="n">
         <v>3</v>
@@ -4201,10 +4183,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -4230,10 +4212,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G44" t="n">
         <v>3</v>
@@ -4259,10 +4241,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -4288,10 +4270,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -4317,10 +4299,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -4346,10 +4328,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -4375,10 +4357,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -4404,10 +4386,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F50" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -4433,10 +4415,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G51" t="n">
         <v>3</v>
@@ -4462,10 +4444,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G52" t="n">
         <v>25</v>
@@ -4491,10 +4473,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F53" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -4520,10 +4502,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F54" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -4549,10 +4531,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -4578,10 +4560,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4607,10 +4589,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -4636,10 +4618,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F58" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -4665,10 +4647,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4694,10 +4676,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4723,10 +4705,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>11</v>
@@ -4752,10 +4734,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>10</v>
@@ -4781,10 +4763,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4810,10 +4792,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4839,10 +4821,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4868,10 +4850,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>3</v>
@@ -4897,10 +4879,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4926,10 +4908,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -4955,10 +4937,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -4984,10 +4966,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F70" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -5013,10 +4995,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F71" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G71" t="n">
         <v>4</v>
@@ -5042,10 +5024,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F72" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -5071,10 +5053,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F73" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G73" t="n">
         <v>10</v>
@@ -5100,10 +5082,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G74" t="n">
         <v>5</v>
@@ -5129,10 +5111,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F75" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G75" t="n">
         <v>6</v>
@@ -5158,10 +5140,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -5187,10 +5169,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -5216,10 +5198,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -5245,10 +5227,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -5274,10 +5256,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -5303,10 +5285,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5332,10 +5314,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5361,10 +5343,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
@@ -5390,10 +5372,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -5419,10 +5401,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5448,10 +5430,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5477,10 +5459,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5506,10 +5488,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -5535,10 +5517,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5564,10 +5546,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5593,10 +5575,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5622,10 +5604,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5651,10 +5633,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5680,10 +5662,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5709,10 +5691,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5738,10 +5720,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5767,10 +5749,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -5796,10 +5778,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -5825,10 +5807,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -5854,10 +5836,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -5883,10 +5865,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>3</v>
@@ -5912,10 +5894,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -5941,10 +5923,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5970,10 +5952,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -5999,10 +5981,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -6028,10 +6010,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -6057,10 +6039,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -6086,10 +6068,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -6115,10 +6097,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6144,10 +6126,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -6173,10 +6155,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -6202,10 +6184,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -6231,10 +6213,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6260,10 +6242,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -6289,10 +6271,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6318,10 +6300,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6347,10 +6329,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6376,10 +6358,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6405,10 +6387,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6434,10 +6416,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6463,10 +6445,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>4</v>
@@ -6492,10 +6474,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>50</v>
       </c>
       <c r="G122" t="n">
         <v>3</v>
@@ -6521,10 +6503,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G123" t="n">
         <v>11</v>
@@ -6550,10 +6532,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G124" t="n">
         <v>107</v>
@@ -6579,10 +6561,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6608,10 +6590,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6637,10 +6619,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6666,10 +6648,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6695,10 +6677,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6724,10 +6706,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -6753,10 +6735,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6782,10 +6764,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6811,10 +6793,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6840,10 +6822,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -6869,10 +6851,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6898,10 +6880,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6927,10 +6909,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -6956,10 +6938,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G138" t="n">
         <v>3</v>
@@ -6985,10 +6967,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7014,10 +6996,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7043,10 +7025,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7072,10 +7054,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7101,10 +7083,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7130,10 +7112,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7159,10 +7141,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G145" t="n">
         <v>4</v>
@@ -7188,10 +7170,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7217,10 +7199,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -7246,10 +7228,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7275,10 +7257,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7304,10 +7286,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7333,10 +7315,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7362,10 +7344,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7391,10 +7373,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7420,10 +7402,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7449,10 +7431,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7478,10 +7460,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7507,10 +7489,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7536,10 +7518,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7565,10 +7547,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7594,10 +7576,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7623,10 +7605,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7652,10 +7634,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F162" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7681,10 +7663,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F163" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7710,10 +7692,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G164" t="n">
         <v>7</v>
@@ -7739,10 +7721,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G165" t="n">
         <v>14</v>
@@ -7768,10 +7750,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7797,10 +7779,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7826,10 +7808,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7855,10 +7837,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7884,10 +7866,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7913,10 +7895,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7942,10 +7924,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7971,10 +7953,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8000,10 +7982,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8029,10 +8011,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F175" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -8058,10 +8040,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F176" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8087,10 +8069,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -8116,10 +8098,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8145,10 +8127,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F179" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8174,10 +8156,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8203,10 +8185,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F181" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8232,10 +8214,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F182" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8261,10 +8243,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F183" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8290,10 +8272,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F184" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8319,10 +8301,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F185" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8348,10 +8330,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F186" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8377,10 +8359,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F187" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G187" t="n">
         <v>3</v>
@@ -8406,10 +8388,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F188" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -8435,10 +8417,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F189" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8464,10 +8446,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F190" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -8493,10 +8475,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F191" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8522,10 +8504,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F192" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -8551,10 +8533,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F193" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G193" t="n">
         <v>10</v>
@@ -8580,10 +8562,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F194" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8609,10 +8591,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F195" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G195" t="n">
         <v>11</v>
@@ -8638,10 +8620,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F196" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8667,10 +8649,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F197" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8696,10 +8678,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F198" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -8725,10 +8707,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F199" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -8754,10 +8736,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F200" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -8783,10 +8765,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F201" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8812,10 +8794,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F202" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8841,10 +8823,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F203" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8870,10 +8852,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F204" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8899,10 +8881,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F205" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8928,10 +8910,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F206" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8957,10 +8939,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F207" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8986,10 +8968,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F208" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9015,10 +8997,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F209" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9044,10 +9026,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F210" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9073,10 +9055,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F211" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9102,10 +9084,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F212" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9131,10 +9113,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F213" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9160,10 +9142,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F214" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G214" t="n">
         <v>3</v>
@@ -9189,10 +9171,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F215" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9218,10 +9200,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F216" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9247,10 +9229,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F217" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9276,10 +9258,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F218" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9305,10 +9287,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F219" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9334,10 +9316,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F220" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9363,10 +9345,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F221" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9392,10 +9374,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F222" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -9421,10 +9403,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F223" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9450,10 +9432,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F224" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9479,10 +9461,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F225" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9508,10 +9490,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F226" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9537,10 +9519,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F227" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G227" t="n">
         <v>4</v>
@@ -9566,10 +9548,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F228" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9595,10 +9577,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F229" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -9624,10 +9606,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F230" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -9653,10 +9635,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F231" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -9682,10 +9664,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F232" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9711,10 +9693,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F233" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -9740,10 +9722,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F234" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9769,10 +9751,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F235" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -9798,10 +9780,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F236" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9827,10 +9809,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F237" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -9856,10 +9838,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F238" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9885,10 +9867,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F239" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -9914,10 +9896,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F240" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -9943,10 +9925,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F241" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -9972,10 +9954,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F242" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10001,10 +9983,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F243" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10030,10 +10012,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F244" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -10059,10 +10041,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F245" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10088,10 +10070,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F246" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10117,10 +10099,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F247" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10146,10 +10128,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F248" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G248" t="n">
         <v>7</v>
@@ -10175,10 +10157,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F249" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10204,10 +10186,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F250" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G250" t="n">
         <v>2</v>
@@ -10233,10 +10215,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F251" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10262,10 +10244,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F252" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10291,10 +10273,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F253" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10320,10 +10302,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F254" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10349,10 +10331,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F255" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10378,10 +10360,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F256" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10407,10 +10389,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F257" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10436,10 +10418,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F258" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10465,10 +10447,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F259" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10494,10 +10476,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F260" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G260" t="n">
         <v>2</v>
@@ -10523,10 +10505,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F261" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10552,10 +10534,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F262" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10581,10 +10563,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F263" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10610,10 +10592,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F264" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10639,10 +10621,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F265" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -10668,10 +10650,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F266" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10697,10 +10679,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F267" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10726,10 +10708,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F268" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -10755,10 +10737,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F269" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -10784,10 +10766,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F270" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10813,10 +10795,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F271" t="s">
-        <v>526</v>
+        <v>52</v>
       </c>
       <c r="G271" t="n">
         <v>3</v>
@@ -10842,10 +10824,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F272" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10871,10 +10853,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F273" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G273" t="n">
         <v>7</v>
@@ -10900,10 +10882,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F274" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10929,10 +10911,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F275" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10958,10 +10940,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F276" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10987,10 +10969,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F277" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G277" t="n">
         <v>22</v>
@@ -11016,10 +10998,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F278" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11045,10 +11027,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F279" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11074,10 +11056,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F280" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11103,10 +11085,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F281" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11132,10 +11114,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F282" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11161,10 +11143,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F283" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11190,10 +11172,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F284" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11219,10 +11201,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F285" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11248,10 +11230,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F286" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11277,10 +11259,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F287" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11306,10 +11288,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F288" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11335,10 +11317,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F289" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11364,10 +11346,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F290" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G290" t="n">
         <v>2</v>
@@ -11393,10 +11375,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F291" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11422,10 +11404,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F292" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11451,10 +11433,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F293" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11480,10 +11462,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F294" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11509,10 +11491,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F295" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11538,10 +11520,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F296" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11567,10 +11549,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F297" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11596,10 +11578,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F298" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11625,10 +11607,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F299" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11654,10 +11636,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F300" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G300" t="n">
         <v>2</v>
@@ -11683,10 +11665,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F301" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11712,10 +11694,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F302" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11741,10 +11723,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F303" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11770,10 +11752,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F304" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11799,10 +11781,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F305" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G305" t="n">
         <v>2</v>
@@ -11828,10 +11810,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F306" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11857,10 +11839,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F307" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11886,10 +11868,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F308" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11915,10 +11897,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F309" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11944,10 +11926,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F310" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11973,10 +11955,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F311" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12002,10 +11984,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F312" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12031,10 +12013,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F313" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12060,10 +12042,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F314" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12089,10 +12071,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F315" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12118,10 +12100,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F316" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12147,10 +12129,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F317" t="s">
-        <v>612</v>
+        <v>447</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12176,10 +12158,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F318" t="s">
-        <v>614</v>
+        <v>443</v>
       </c>
       <c r="G318" t="n">
         <v>2</v>
@@ -12205,10 +12187,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="F319" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12234,10 +12216,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F320" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12263,10 +12245,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="F321" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G321" t="n">
         <v>2</v>
@@ -12292,10 +12274,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="F322" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="G322" t="n">
         <v>2</v>
@@ -12321,10 +12303,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="F323" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12350,10 +12332,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="F324" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12379,10 +12361,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="F325" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12408,10 +12390,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F326" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12437,10 +12419,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="F327" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12466,10 +12448,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="F328" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12495,10 +12477,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F329" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12524,10 +12506,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="F330" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12553,10 +12535,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F331" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12582,10 +12564,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="F332" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12611,10 +12593,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="F333" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12640,10 +12622,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="F334" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12669,10 +12651,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="F335" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12698,10 +12680,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="F336" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12727,10 +12709,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="F337" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12756,10 +12738,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="F338" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12785,10 +12767,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F339" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12814,10 +12796,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="F340" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12843,10 +12825,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="F341" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12872,10 +12854,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F342" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G342" t="n">
         <v>2</v>
@@ -12901,10 +12883,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="F343" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12930,10 +12912,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F344" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12959,10 +12941,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="F345" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12988,10 +12970,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F346" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13017,10 +12999,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="F347" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13046,10 +13028,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="F348" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13075,10 +13057,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="F349" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13104,10 +13086,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="F350" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13133,10 +13115,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="F351" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13162,10 +13144,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="F352" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13191,10 +13173,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="F353" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13220,10 +13202,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="F354" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13249,10 +13231,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="F355" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13278,10 +13260,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="F356" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13307,10 +13289,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F357" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13336,10 +13318,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="F358" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13365,10 +13347,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F359" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13394,10 +13376,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F360" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13423,10 +13405,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F361" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G361" t="n">
         <v>4</v>
@@ -13452,10 +13434,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="F362" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13481,10 +13463,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="F363" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13510,10 +13492,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="F364" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13539,10 +13521,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="F365" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13568,10 +13550,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="F366" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13597,10 +13579,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F367" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13626,10 +13608,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="F368" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13655,10 +13637,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="F369" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13684,10 +13666,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="F370" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13713,10 +13695,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F371" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G371" t="n">
         <v>38</v>
@@ -13742,10 +13724,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="F372" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13771,10 +13753,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="F373" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13800,10 +13782,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="F374" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13829,10 +13811,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="F375" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13858,10 +13840,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="F376" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13887,10 +13869,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="F377" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13916,10 +13898,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="F378" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13945,10 +13927,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="F379" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13974,10 +13956,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F380" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14003,10 +13985,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="F381" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14032,10 +14014,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="F382" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14061,10 +14043,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="F383" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14090,10 +14072,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="F384" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="G384" t="n">
         <v>3</v>
@@ -14119,10 +14101,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="F385" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14148,10 +14130,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F386" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14177,10 +14159,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="F387" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="G387" t="n">
         <v>2</v>
@@ -14206,10 +14188,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="F388" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14235,10 +14217,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="F389" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14264,10 +14246,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F390" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14293,10 +14275,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F391" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14322,10 +14304,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="F392" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14351,10 +14333,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="F393" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14380,10 +14362,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="F394" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14409,10 +14391,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="F395" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14438,10 +14420,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="F396" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="G396" t="n">
         <v>2</v>
@@ -14467,10 +14449,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="F397" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="G397" t="n">
         <v>3</v>
@@ -14496,10 +14478,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="F398" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="G398" t="n">
         <v>2</v>
@@ -14525,10 +14507,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="F399" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14554,10 +14536,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="F400" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14583,10 +14565,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="F401" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="G401" t="n">
         <v>3</v>
@@ -14612,10 +14594,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="F402" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="G402" t="n">
         <v>2</v>
@@ -14641,10 +14623,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="F403" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14670,10 +14652,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F404" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="G404" t="n">
         <v>2</v>
@@ -14699,10 +14681,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="F405" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14728,10 +14710,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="F406" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14757,10 +14739,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="F407" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14786,10 +14768,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="F408" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14815,10 +14797,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="F409" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14844,10 +14826,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F410" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14873,10 +14855,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="F411" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14902,10 +14884,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="F412" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -14931,10 +14913,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="F413" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -14960,10 +14942,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="F414" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -14989,10 +14971,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="F415" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15018,10 +15000,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="F416" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15047,10 +15029,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="F417" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15076,10 +15058,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="F418" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15105,10 +15087,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F419" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G419" t="n">
         <v>11</v>
@@ -15134,10 +15116,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F420" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G420" t="n">
         <v>3</v>
@@ -15163,10 +15145,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F421" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G421" t="n">
         <v>26</v>
@@ -15192,10 +15174,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F422" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15221,10 +15203,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="F423" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15250,10 +15232,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="F424" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15279,10 +15261,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="F425" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="G425" t="n">
         <v>3</v>
@@ -15308,10 +15290,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="F426" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15337,10 +15319,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="F427" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15366,10 +15348,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="F428" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15395,10 +15377,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="F429" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15424,10 +15406,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="F430" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15453,10 +15435,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="F431" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15482,10 +15464,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="F432" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15511,10 +15493,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="F433" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15540,10 +15522,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="F434" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15569,10 +15551,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="F435" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15598,10 +15580,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="F436" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15627,10 +15609,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="F437" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15656,10 +15638,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F438" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G438" t="n">
         <v>2</v>
@@ -15685,10 +15667,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="F439" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15714,10 +15696,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="F440" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -15743,10 +15725,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="F441" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -15772,10 +15754,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="F442" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -15801,10 +15783,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="F443" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -15830,10 +15812,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="F444" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -15859,10 +15841,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="F445" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -15888,10 +15870,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="F446" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -15917,10 +15899,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="F447" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -15946,10 +15928,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="F448" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -15975,10 +15957,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="F449" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16004,10 +15986,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F450" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16033,10 +16015,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="F451" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16062,10 +16044,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="F452" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16091,10 +16073,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="F453" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="G453" t="n">
         <v>3</v>
@@ -16120,10 +16102,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="F454" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16149,10 +16131,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="F455" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16178,10 +16160,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="F456" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16207,10 +16189,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="F457" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16236,10 +16218,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="F458" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16265,10 +16247,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="F459" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16294,10 +16276,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="F460" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16323,10 +16305,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="F461" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16352,10 +16334,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="F462" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16381,10 +16363,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="F463" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16410,10 +16392,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="F464" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
